--- a/target/classes/bugList.xlsx
+++ b/target/classes/bugList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\projetos  pessoais\testes\web_automated_test\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.figueiredo\Downloads\_LUCAS\web_automated_test\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DC4B22-3DE0-4B6C-B8D9-5544F02D796D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9090" xr2:uid="{33C5F396-CB74-4869-9DBD-84DD7C0D5C9C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>[Todos os Projetos] General</t>
   </si>
@@ -106,12 +105,15 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>bug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -514,125 +516,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3037B315-66D4-4180-A974-CA06848E05C0}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
